--- a/data/income_statement/2digits/size/61_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/61_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>61-Telecommunications</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>61-Telecommunications</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,413 +841,468 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>670295.00503</v>
+        <v>711280.5416600001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>769020.6995499999</v>
+        <v>814700.9196500001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>991153.64138</v>
+        <v>1058499.80178</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>915376.6578399999</v>
+        <v>925452.92641</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1237257.80482</v>
+        <v>1240346.78338</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1095513.50042</v>
+        <v>1156882.86522</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1680357.37883</v>
+        <v>1787850.96675</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1997684.12005</v>
+        <v>2072166.00952</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1961061.0693</v>
+        <v>1890497.5872</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2383766.32064</v>
+        <v>2331570.70652</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2780871.21382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2803022.75017</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3469804.209</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>536474.71597</v>
+        <v>567163.81125</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>660730.17217</v>
+        <v>693647.2096299999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>839729.45438</v>
+        <v>874913.73777</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>816487.3407300001</v>
+        <v>821020.4773200001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1063866.70455</v>
+        <v>1071526.07886</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>960275.6889300001</v>
+        <v>984202.0240500001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1516381.08255</v>
+        <v>1591677.28555</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1855818.36512</v>
+        <v>1913544.68054</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1823334.60807</v>
+        <v>1754772.43475</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2004754.77709</v>
+        <v>1953014.42643</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2426903.71047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2454309.49879</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3021519.442</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>114990.61094</v>
+        <v>125940.79156</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>100944.53531</v>
+        <v>114445.7725</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>135102.3788</v>
+        <v>165328.30609</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>67341.12546</v>
+        <v>69999.31997</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>154172.65096</v>
+        <v>150589.45068</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>106961.15955</v>
+        <v>150952.89781</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>123998.34</v>
+        <v>157711.49768</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>114390.39252</v>
+        <v>130969.29208</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>80227.45331999999</v>
+        <v>78964.31200000002</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>319214.51346</v>
+        <v>321325.65899</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>291082.3893100001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>282591.89468</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>325526.121</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>18829.67812</v>
+        <v>18175.93885</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>7345.992069999999</v>
+        <v>6607.93752</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>16321.8082</v>
+        <v>18257.75792</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>31548.19165</v>
+        <v>34433.12912</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>19218.44931</v>
+        <v>18231.25384</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>28276.65194</v>
+        <v>21727.94336</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>39977.95628</v>
+        <v>38462.18352</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>27475.36241</v>
+        <v>27652.0369</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>57499.00791</v>
+        <v>56760.84045</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>59797.03009</v>
+        <v>57230.6211</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>62885.11404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>66121.3567</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>122758.646</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4650.80512</v>
+        <v>5176.85956</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>8768.414570000001</v>
+        <v>9510.50095</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>9442.015939999999</v>
+        <v>12404.00328</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>8834.4804</v>
+        <v>12200.33264</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>11496.91159</v>
+        <v>9789.360540000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>11990.55433</v>
+        <v>11936.26649</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>21749.4036</v>
+        <v>21802.83538</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>37092.02836</v>
+        <v>35707.8387</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>48526.10281</v>
+        <v>46944.01218</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>64838.23932</v>
+        <v>84251.67555000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>33505.42839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>53069.90726000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>87824.508</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>4196.12652</v>
+        <v>4258.45314</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>6485.64304</v>
+        <v>6913.968269999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>7947.72304</v>
+        <v>8301.119649999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>8154.347060000001</v>
+        <v>8873.849190000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10498.01643</v>
+        <v>7612.816710000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>10711.77537</v>
+        <v>10995.1469</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>17558.00375</v>
+        <v>17867.17437</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>29695.58987</v>
+        <v>29902.38924</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>37422.82467</v>
+        <v>35870.52673</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>49471.19502</v>
+        <v>50207.59244</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>32022.37081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>33334.88370000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>56709.233</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>368.88866</v>
+        <v>826.46225</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2237.5471</v>
+        <v>2551.69751</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1303.05524</v>
+        <v>4004.17702</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>481.7490799999999</v>
+        <v>3112.32216</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>483.75948</v>
+        <v>1661.52991</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1018.97787</v>
+        <v>796.2033100000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3589.703190000001</v>
+        <v>3333.96435</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>7051.44771</v>
+        <v>5513.6523</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>10296.66185</v>
+        <v>10267.58747</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>13453.32774</v>
+        <v>32145.11655</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>488.0616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18889.24619</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>30707.058</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>85.78994</v>
+        <v>91.94417000000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>45.22443</v>
+        <v>44.83517000000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>191.23766</v>
+        <v>98.70661</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>198.38426</v>
+        <v>214.16129</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>515.1356800000001</v>
+        <v>515.0139200000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>259.80109</v>
+        <v>144.91628</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>601.6966600000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>344.99078</v>
+        <v>291.79716</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>806.61629</v>
+        <v>805.89798</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1913.71656</v>
+        <v>1898.96656</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>994.99598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>845.77737</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>408.217</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>665644.19991</v>
+        <v>706103.6821</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>760252.28498</v>
+        <v>805190.4187</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>981711.6254400001</v>
+        <v>1046095.7985</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>906542.17744</v>
+        <v>913252.59377</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1225760.89323</v>
+        <v>1230557.42284</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1083522.94609</v>
+        <v>1144946.59873</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1658607.97523</v>
+        <v>1766048.13137</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1960592.09169</v>
+        <v>2036458.17082</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1912534.96649</v>
+        <v>1843553.57502</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2318928.08132</v>
+        <v>2247319.03097</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2747365.78543</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2749952.84291</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3381979.701</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>525498.8816600001</v>
+        <v>546640.4447999999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>608339.81689</v>
+        <v>645319.76835</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>762918.5294999999</v>
+        <v>806259.15198</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>734410.4676699999</v>
+        <v>739000.0605</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1007800.0511</v>
+        <v>1013055.86425</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>865888.9231200001</v>
+        <v>972685.8854200001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1391039.27374</v>
+        <v>1484520.7457</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1645510.441</v>
+        <v>1713927.46572</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1489012.64319</v>
+        <v>1442833.56355</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1925043.8906</v>
+        <v>1848138.18246</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2295849.50649</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2250631.1345</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2614111.747</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4783.632020000001</v>
+        <v>12789.22525</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>13005.00187</v>
+        <v>16355.67302</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>16141.05114</v>
+        <v>20269.25137</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>4283.09263</v>
@@ -1355,109 +1311,124 @@
         <v>4793.39226</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6558.148569999999</v>
+        <v>6555.906609999999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>467.42067</v>
+        <v>1551.35152</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>15762.37409</v>
+        <v>24588.51591</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>35680.52254</v>
+        <v>35612.14566</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>14505.91523</v>
+        <v>31979.39176</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>28970.18492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>54799.26459</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>155262.073</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>154357.292</v>
+        <v>153764.36851</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>145366.52764</v>
+        <v>151114.05845</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>201801.04906</v>
+        <v>211010.2499</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>253481.9681</v>
+        <v>254076.37404</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>482513.78064</v>
+        <v>464505.15481</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>308468.27074</v>
+        <v>404106.9027</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>756280.5109199999</v>
+        <v>846285.0457799999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>816845.0038499999</v>
+        <v>833867.64626</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>682411.37887</v>
+        <v>681041.33062</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>402428.1522</v>
+        <v>377439.97514</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>811575.3904800001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>763929.9409800001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>731524.836</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>366357.95764</v>
+        <v>379912.56877</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>449769.04175</v>
+        <v>477650.79125</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>544876.20104</v>
+        <v>574879.4224500001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>474833.39774</v>
+        <v>478828.58463</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>519964.49784</v>
+        <v>542168.6441400001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>549985.6012799999</v>
+        <v>561154.325</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>632711.4095899999</v>
+        <v>635226.13118</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>811809.22838</v>
+        <v>854377.46887</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>769533.4077000001</v>
+        <v>724794.03799</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1503695.20385</v>
+        <v>1434304.19624</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1449235.68204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1425452.51616</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1718945.315</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>0</v>
+        <v>174.28227</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>199.24563</v>
@@ -1469,115 +1440,130 @@
         <v>1812.0092</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>528.38036</v>
+        <v>1588.67304</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>876.9025300000001</v>
+        <v>868.7511100000002</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1579.93256</v>
+        <v>1458.21722</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>1093.83468</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1387.33408</v>
+        <v>1386.04928</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>4414.619320000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>6068.24905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6449.412770000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>8379.522999999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>140145.31825</v>
+        <v>159463.2373</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>151912.46809</v>
+        <v>159870.65035</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>218793.09594</v>
+        <v>239836.64652</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>172131.70977</v>
+        <v>174252.53327</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>217960.84213</v>
+        <v>217501.55859</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>217634.02297</v>
+        <v>172260.71331</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>267568.70149</v>
+        <v>281527.38567</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>315081.65069</v>
+        <v>322530.7051</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>423522.3232999999</v>
+        <v>400720.01147</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>393884.19072</v>
+        <v>399180.84851</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>451516.27894</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>499321.70841</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>767867.954</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>124761.69004</v>
+        <v>127874.74887</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>129411.01275</v>
+        <v>131413.59217</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>155049.58862</v>
+        <v>177875.56352</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>123654.19732</v>
+        <v>128383.90433</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>164126.05852</v>
+        <v>168197.79363</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>174363.12831</v>
+        <v>169039.95672</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>223916.30779</v>
+        <v>224158.75958</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>270726.57206</v>
+        <v>294352.76632</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>382092.78131</v>
+        <v>355022.60944</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>456710.34157</v>
+        <v>451886.9126900001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>462320.40004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>487456.9748</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>612073.993</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>944.2184</v>
+        <v>859.07688</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2358.86464</v>
+        <v>2348.81539</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>2821.78176</v>
@@ -1592,193 +1578,218 @@
         <v>5677.6157</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>7292.759150000001</v>
+        <v>7956.54508</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>8246.26908</v>
+        <v>36891.83287</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>63801.99839</v>
+        <v>62996.17618</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>9144.53384</v>
+        <v>17818.00454</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>11507.87984</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>23042.65248</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>36939.194</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>27045.22503</v>
+        <v>26569.2492</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>27090.78288</v>
+        <v>28567.62445</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>21837.32917</v>
+        <v>32041.22929</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>23506.01378</v>
+        <v>23129.39347</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>23432.97408</v>
+        <v>22569.88975</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>41916.52865</v>
+        <v>43716.42907</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>74341.93202000001</v>
+        <v>65058.49594</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>79940.17006</v>
+        <v>66540.78717</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>103424.85071</v>
+        <v>93459.11644</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>156809.54561</v>
+        <v>162390.24638</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>169789.00997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>183126.45267</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>243000.369</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>96772.24661</v>
+        <v>100446.42279</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>99961.36523</v>
+        <v>100497.15233</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>130390.47769</v>
+        <v>143012.55247</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>96407.17907</v>
+        <v>101513.50639</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>136454.47089</v>
+        <v>141389.29033</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>126768.98396</v>
+        <v>119645.91195</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>142281.61662</v>
+        <v>151143.71856</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>182540.13292</v>
+        <v>190920.14628</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>214865.93221</v>
+        <v>198567.31682</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>290756.26212</v>
+        <v>271678.66177</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>281023.51023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>281287.8696499999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>332134.43</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>15383.62821</v>
+        <v>31588.48843</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>22501.45534</v>
+        <v>28457.05818</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>63743.50732</v>
+        <v>61961.083</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>48477.51244999999</v>
+        <v>45868.62894</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>53834.78361</v>
+        <v>49303.76495999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>43270.89466</v>
+        <v>3220.75659</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>43652.3937</v>
+        <v>57368.62609000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>44355.07863</v>
+        <v>28177.93878</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>41429.54199</v>
+        <v>45697.40203</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-62826.15085</v>
+        <v>-52706.06417999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-10804.12109999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>11864.73360999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>155793.961</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>29266.95603</v>
+        <v>53327.84459</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>30547.86777</v>
+        <v>26347.61744999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>37918.75976</v>
+        <v>58450.49393</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>27124.60599</v>
+        <v>22220.05197</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>65589.24606</v>
+        <v>49964.95125999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>69205.51607000001</v>
+        <v>43215.17918</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>70747.77406</v>
+        <v>84023.58254999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>70235.2601</v>
+        <v>136713.22117</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>100947.9516</v>
+        <v>72842.97104</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>363363.93337</v>
+        <v>259378.80329</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>258651.44096</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>218208.04004</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>508312.218</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>298.395</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1.122</v>
+        <v>0</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>170.63367</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>9.29843</v>
@@ -1787,52 +1798,57 @@
         <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>304.96389</v>
+        <v>304.96289</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>445.5</v>
+        <v>5930.4148</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1710</v>
+        <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>8238.025</v>
+        <v>72</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>9926.743050000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>69.2651</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>386.29294</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>2059.23126</v>
+        <v>72.79995</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1266.02551</v>
+        <v>16823.1693</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>521.25323</v>
+        <v>149.59933</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>3774.116939999999</v>
+        <v>3305.94331</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>7184.460139999999</v>
+        <v>6793.2838</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>9.9</v>
+        <v>8568.12039</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>128.23164</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1233.5838</v>
+        <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>3642.82929</v>
@@ -1840,53 +1856,63 @@
       <c r="M27" s="48" t="n">
         <v>2136.84307</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>236.463</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>5045.702179999999</v>
+        <v>5308.2519</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>5484.07874</v>
+        <v>6687.07617</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>5325.52895</v>
+        <v>6297.339720000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3692.38577</v>
+        <v>3230.54078</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>8130.86074</v>
+        <v>7586.9954</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>11822.04688</v>
+        <v>4419.19049</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3760.75954</v>
+        <v>3651.222519999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6035.40083</v>
+        <v>6173.952729999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>7274.28752</v>
+        <v>3817.273899999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>13979.38799</v>
+        <v>17222.42258</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>26518.98198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>24446.41404</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>18697.042</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>632.4753499999999</v>
+        <v>650.7390800000001</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>8.89709</v>
@@ -1898,7 +1924,7 @@
         <v>140.98252</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>0.62081</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>0.05095</v>
@@ -1910,136 +1936,156 @@
         <v>32.34805</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>34.20367</v>
+        <v>65.35614</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>0.64313</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>88.31338000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>82.79444000000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1009.73192</v>
+        <v>1032.73192</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3004.46837</v>
+        <v>611.2175999999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>158.84829</v>
+        <v>346.37122</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>190.92704</v>
+        <v>474.05885</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>678.76225</v>
+        <v>1722.00923</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>939.7435300000001</v>
+        <v>405.14363</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1740.04779</v>
+        <v>1707.87734</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>689.0384499999999</v>
+        <v>1538.0155</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>1558.06063</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3652.0219</v>
+        <v>3634.428809999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3982.31348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3949.59013</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2843.148</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>300.9100800000001</v>
+        <v>182.66689</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>159.18247</v>
+        <v>134.03377</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1846.96062</v>
+        <v>127.78404</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>225.01717</v>
+        <v>144.70317</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>199.92067</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>346.00397</v>
+        <v>1133.08283</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>212.29342</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>612.4140599999999</v>
+        <v>447.86553</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1338.90579</v>
+        <v>703.03372</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1552.71481</v>
+        <v>1460.16921</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>10153.40843</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1694.76442</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2489.199</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>17136.92792</v>
+        <v>39525.93917000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>13833.44559</v>
+        <v>14000.58847</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>20608.31717</v>
+        <v>25034.06894</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>9769.070489999998</v>
+        <v>9992.61377</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>38146.69909</v>
+        <v>31137.25519</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>36823.64961</v>
+        <v>23376.91765</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>49643.375</v>
+        <v>62397.47462000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>48660.09366</v>
+        <v>112690.68575</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>68932.16884</v>
+        <v>58315.22953999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>274124.33521</v>
+        <v>178698.0439</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>130474.59732</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>113642.95821</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>431132.944</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>5.31331</v>
@@ -2048,7 +2094,7 @@
         <v>5.69247</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>0</v>
+        <v>5.609</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>6.41485</v>
@@ -2074,20 +2120,25 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>35.31907</v>
+        <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>2.24526</v>
+        <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>8.019410000000001</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>4451.20733</v>
+        <v>5937.51438</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5956.430709999999</v>
+        <v>4827.31193</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>8707.44282</v>
+        <v>9592.76057</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>12570.53551</v>
+        <v>7902.485619999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>14648.96713</v>
+        <v>6003.52903</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>12044.63564</v>
+        <v>7042.58448</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>14969.69099</v>
+        <v>7074.88794</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>13632.23341</v>
+        <v>9771.70717</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>18866.74135</v>
+        <v>8384.017110000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>58173.97604000001</v>
+        <v>54648.26637</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>75370.24025</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>72185.41063</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>52913.422</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>21100.81802</v>
+        <v>46051.95981</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>19896.23215</v>
+        <v>17879.61079</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>31039.14582</v>
+        <v>37263.19169</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>15018.56675</v>
+        <v>13955.6214</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>77251.69084000001</v>
+        <v>43588.72044</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>94035.08292</v>
+        <v>41389.73594</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>113307.70674</v>
+        <v>74863.60384000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>66677.89658</v>
+        <v>106491.10731</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>101583.6377</v>
+        <v>80275.95177</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>332950.0573</v>
+        <v>202713.02273</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>169931.79882</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>151580.36262</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>422697.425</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>222.25708</v>
+        <v>266.51928</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>764.71266</v>
+        <v>792.26824</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>744.36636</v>
+        <v>808.1332000000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1083.81653</v>
+        <v>678.44051</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1788.19401</v>
+        <v>1767.96322</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2221.16237</v>
+        <v>2220.64716</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2558.69727</v>
+        <v>2550.37995</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3401.99251</v>
+        <v>7654.27149</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>6479.42849</v>
+        <v>6467.12178</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>5709.24864</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6754.2889</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>6692.8889</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>8936.540999999999</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1256.99287</v>
+        <v>1364.58073</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3551.88453</v>
+        <v>690.26513</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>367.31872</v>
+        <v>966.47298</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>765.3402</v>
+        <v>2829.01752</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2728.45738</v>
+        <v>3805.814190000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>34383.94342</v>
+        <v>2733.3285</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>3547.33341</v>
+        <v>3487.46085</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5242.870570000001</v>
+        <v>5380.713839999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1079.35672</v>
+        <v>1054.2954</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>19002.08234</v>
+        <v>18674.27723</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>26510.67284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>26437.37807</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>14296.042</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.00152</v>
@@ -2291,67 +2367,77 @@
         <v>0.27719</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>24.96941</v>
+        <v>0.04495</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>127.60857</v>
+        <v>110.85857</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>439.83365</v>
+        <v>122.3713</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>328.2360400000001</v>
+        <v>145.69912</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>1724.28145</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1243.69143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>898.12407</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>185.413</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>19388.18768</v>
+        <v>42549.29490000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>14250.54713</v>
+        <v>14601.0574</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>27925.73585</v>
+        <v>31843.13624</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>8737.1828</v>
+        <v>7934.37488</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>69392.46642</v>
+        <v>36884.6831</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>54049.53056</v>
+        <v>35587.97452</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>100894.36156</v>
+        <v>67957.53748999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>52003.01967</v>
+        <v>91006.63887000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>84741.79044</v>
+        <v>68626.36705</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>303421.16175</v>
+        <v>174278.37583</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>134269.98866</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>116423.16379</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>395859.93</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.737</v>
@@ -2360,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>0</v>
+        <v>0.175</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>0</v>
@@ -2375,7 +2461,7 @@
         <v>137.91319</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>13.75559</v>
+        <v>922.5140699999999</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0.04082</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2399,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0.21235</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0.14363</v>
@@ -2425,362 +2516,412 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>232.64187</v>
+        <v>1870.82638</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1329.0872</v>
+        <v>1796.01939</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2000.39075</v>
+        <v>3644.15248</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4432.08359</v>
+        <v>2513.64486</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3342.29584</v>
+        <v>1129.98274</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3355.47716</v>
+        <v>847.74081</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>6041.79274</v>
+        <v>619.4537899999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5576.42459</v>
+        <v>1404.59774</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>8954.785189999999</v>
+        <v>3982.4276</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3093.28312</v>
+        <v>2326.83958</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1153.15699</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1128.80779</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3419.499</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>5624.56961</v>
+        <v>7923.07321</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>7685.89683</v>
+        <v>11030.476</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>10017.89785</v>
+        <v>16144.72887</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>9361.158519999999</v>
+        <v>10995.88328</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>27618.37816</v>
+        <v>15885.57284</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>33992.25172</v>
+        <v>15498.13414</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>37926.94556</v>
+        <v>19736.35541</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>25990.62946</v>
+        <v>129122.19783</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>30198.64725</v>
+        <v>26496.77563</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>82984.8033</v>
+        <v>80285.26102999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>97537.74208000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>92779.03497999998</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>55136.793</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>5573.54694</v>
+        <v>7872.05054</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>7515.305230000001</v>
+        <v>10438.24745</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>9367.99703</v>
+        <v>13019.70145</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>9361.158519999999</v>
+        <v>9860.242689999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>27599.11955</v>
+        <v>14317.46961</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>33687.516</v>
+        <v>12212.44392</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>37916.84297999999</v>
+        <v>17425.9162</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>25275.26482</v>
+        <v>127309.38832</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>29667.0174</v>
+        <v>25967.4498</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>79763.83859999999</v>
+        <v>77064.29633</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>96718.54127000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>88501.51716999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>49751.376</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>51.02267</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>170.5916</v>
+        <v>592.22855</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>649.9008200000001</v>
+        <v>3125.02742</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>0</v>
+        <v>1135.64059</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>19.25861</v>
+        <v>1568.10323</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>304.73572</v>
+        <v>3285.69022</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>10.10258</v>
+        <v>2310.43921</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>715.36464</v>
+        <v>1812.80951</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>531.62985</v>
+        <v>529.32583</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>3220.9647</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>819.20081</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4277.517809999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5385.417</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>17925.19661</v>
+        <v>30941.3</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>25467.19413</v>
+        <v>25894.58884</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>60605.22341</v>
+        <v>67003.65637</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>51222.39317</v>
+        <v>43137.17623</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>14553.96067</v>
+        <v>39794.42294</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-15550.92391</v>
+        <v>-10451.93431</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-36834.48453999999</v>
+        <v>46792.24939</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>21921.81269</v>
+        <v>-70722.14519</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>10595.20864</v>
+        <v>11767.64567</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-115397.07808</v>
+        <v>-76325.54465</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-19622.22104000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-14286.62394999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>186271.961</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>4633.27534</v>
+        <v>4257.079189999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>7112.17067</v>
+        <v>5177.5387</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8469.26892</v>
+        <v>8437.774960000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6231.3039</v>
+        <v>5735.290550000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>13737.62037</v>
+        <v>7399.234820000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>42153.20452000001</v>
+        <v>10412.04675</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>8546.58958</v>
+        <v>6808.036079999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>15134.06783</v>
+        <v>13717.91461</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>19408.16433</v>
+        <v>13490.07752</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>34739.12767</v>
+        <v>33440.78043999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>46482.87119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>44445.67963000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>30937.739</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>386.79127</v>
+        <v>385.50743</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1339.26059</v>
+        <v>188.15967</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>158.67515</v>
+        <v>146.99788</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>412.6296</v>
+        <v>395.30024</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>245.93556</v>
+        <v>220.88388</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>183.24269</v>
+        <v>173.45493</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>311.70717</v>
+        <v>224.93259</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>585.8703300000001</v>
+        <v>589.9521900000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>346.95335</v>
+        <v>331.86686</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1660.94239</v>
+        <v>1631.42733</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3961.74242</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4385.45605</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2995.164</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>4246.48407</v>
+        <v>3871.57176</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>5772.91008</v>
+        <v>4989.379029999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>8310.593769999999</v>
+        <v>8290.77708</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>5818.6743</v>
+        <v>5339.99031</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>13491.68481</v>
+        <v>7178.350939999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>41969.96183</v>
+        <v>10238.59182</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>8234.88241</v>
+        <v>6583.10349</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>14548.1975</v>
+        <v>13127.96242</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>19061.21098</v>
+        <v>13158.21066</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>33078.18527999999</v>
+        <v>31809.35311</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>42521.12877</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>40060.22358</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>27942.575</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4698.57218</v>
+        <v>4444.032899999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>4308.81516</v>
+        <v>3177.918430000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>23276.54663</v>
+        <v>23712.23104</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>10174.15304</v>
+        <v>11237.497</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>170942.25803</v>
+        <v>15826.88509</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>42262.41031</v>
+        <v>11294.63303</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>14167.88358</v>
+        <v>11771.56293</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>42283.33221</v>
+        <v>42882.04181</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>16641.80474</v>
+        <v>7964.826219999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>26283.35298</v>
+        <v>25316.83973</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>17007.00245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>12081.3737</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>30583.732</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2804,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>0</v>
+        <v>3e-05</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0.12206</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>256.01689</v>
+        <v>257.08614</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>426.57397</v>
+        <v>239.26939</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>609.2125800000001</v>
+        <v>607.18787</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4387.56747</v>
+        <v>4329.131599999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>770.50909</v>
+        <v>693.37172</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1059.34776</v>
+        <v>2911.79331</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>625.85516</v>
+        <v>360.23308</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1142.47926</v>
+        <v>1280.85364</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>847.7906400000001</v>
+        <v>306.87417</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1706.39653</v>
+        <v>1446.95279</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5104.71476</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3980.19027</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7522.937</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4442.55529</v>
+        <v>4186.94676</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3882.24119</v>
+        <v>2938.64904</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>22660.08254</v>
+        <v>23097.79166</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5786.58557</v>
+        <v>6908.3654</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>170171.74894</v>
+        <v>15133.51337</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>41203.06255</v>
+        <v>8382.83972</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>13542.02842</v>
+        <v>11411.32985</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>41140.85294999999</v>
+        <v>41601.18814</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>15794.0141</v>
+        <v>7657.952049999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>24576.11287</v>
+        <v>23869.04336</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>11902.16563</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>8101.061369999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>23060.795</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>17859.89977</v>
+        <v>30754.34629</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>28270.54964</v>
+        <v>27894.20911</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>45797.9457</v>
+        <v>51729.20029</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>47279.54403</v>
+        <v>37634.96978</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-142650.67699</v>
+        <v>31366.77267</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-15660.1297</v>
+        <v>-11334.52059</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-42455.77854000001</v>
+        <v>41828.72254</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-5227.451689999999</v>
+        <v>-99886.27239000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>13361.56823</v>
+        <v>17292.89697</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-106941.30339</v>
+        <v>-68201.60393999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>9853.647699999989</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>18077.68197999998</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>186625.968</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>7880.07339</v>
+        <v>8431.522489999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>7800.07424</v>
+        <v>7648.7569</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>13383.81032</v>
+        <v>13587.70934</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>10389.72236</v>
+        <v>10046.31815</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>13182.10793</v>
+        <v>12835.38292</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>11182.77815</v>
+        <v>9319.132679999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>12857.02053</v>
+        <v>15773.59726</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>16896.98804</v>
+        <v>16847.87243</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>14333.70438</v>
+        <v>13248.06397</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>29454.05218</v>
+        <v>32001.06086</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>35799.16492</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>36748.47496</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>53501.71</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>9979.826379999999</v>
+        <v>22322.8238</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>20470.4754</v>
+        <v>20245.45221</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>32414.13538</v>
+        <v>38141.49095</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>36889.82167</v>
+        <v>27588.65163</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-155832.78492</v>
+        <v>18531.38975</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-26842.90785</v>
+        <v>-20653.65327</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-55312.79906999999</v>
+        <v>26055.12528</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-22124.43973</v>
+        <v>-116734.14482</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-972.1361500000022</v>
+        <v>4044.833</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-136395.35557</v>
+        <v>-100202.6648</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-25945.51722</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-18670.79297999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>133124.258</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>76</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>68</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>66</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>70</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>72</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>104</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>112</v>
+      </c>
+      <c r="L59" s="35" t="n">
+        <v>89</v>
+      </c>
+      <c r="M59" s="35" t="n">
         <v>86</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>92</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>83</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>93</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>91</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>121</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>144</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>106</v>
-      </c>
-      <c r="M59" s="35" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="35" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>